--- a/va_facility_data_2025-02-20/Lansing VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lansing%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lansing VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lansing%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6e24f6afb86749289bb6a2fbbc220539"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R109a72876e9b47e1a03dd71ad02a46ab"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R011132690cc244ae858ba0b09da8d5bb"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R63e76d0ba5024d419acf99923c49c900"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R58544904e60d4257aa0ecdad41f19820"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2b54efc1ce7147f08919bebd0dda4561"/>
   </x:sheets>
 </x:workbook>
 </file>
